--- a/medicine/Enfance/Fred_Bernard/Fred_Bernard.xlsx
+++ b/medicine/Enfance/Fred_Bernard/Fred_Bernard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fred Bernard, né le 1er septembre 1969 à Beaune (Côte-d'Or), est un auteur de bande dessinée et illustrateur français de livres jeunesse.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa famille, originaire d'Italie, est installée en Bourgogne depuis deux générations, et il passe toute sa jeunesse dans le village de Savigny-lès-Beaune, auquel il reste très attaché (le village est le décor de plusieurs scènes de la bande dessinée Jeanne Picquigny). En 1987, plutôt que de rejoindre l'entreprise de maçonnerie familiale, il part à Lyon pour étudier à l'École Émile-Cohl[1]. Il y rencontre François Roca en 1990[2],[3], avec lequel il se lie d'amitié. Depuis 1996, ils co-réalisent de nombreux albums illustrés pour enfants, qui séduisent autant le public que la critique (prix Sorcière 1997, prix Goncourt jeunesse en 1996 et 2001, prix Baobab 2001, prix Chrétien de Troyes en 2003, etc).
-En 1989, avec des amis des Beaux-Arts, il prend contact avec Nino Ferrer à travers un échange de lettres. Invité par le chanteur, il se rend à sa propriété de la Taillade.Les deux hommes, que 35 ans séparent, se lient d'amitié et Fred Bernard demeure régulièrement à La Taillade[4]. Il illustre la première intégrale posthume de l'artiste, publiée en 2004,  par une bande-dessinée en noir et blanc de 50 pages qui résume la vie de cet artiste utopiste[5].
-En 2003, il publie sa première bande dessinée, La Tendresse des crocodiles, qu'il a réalisée seul[6]. Il s'affirme comme un auteur singulier dans le paysage de la bande dessinée contemporaine. Son œuvre s'ancre dans la tradition du récit de voyage ou d'aventure, un genre littéraire qu'il a découvert à l'adolescence par ses lectures de Jack London, Herman Melville, Ernest Hemingway, Jules Verne ou Hugo Pratt.
-En 2009 paraît Himalaya Vaudou, chez Drugstore, avec Jean-Marc Rochette[7],[8],[9].
-En 2018 sont publiées deux bandes dessinées sur des dessins de Benjamin Flao : Essence[10],[11],[12] et Le Secret de Zara[13],[14],[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa famille, originaire d'Italie, est installée en Bourgogne depuis deux générations, et il passe toute sa jeunesse dans le village de Savigny-lès-Beaune, auquel il reste très attaché (le village est le décor de plusieurs scènes de la bande dessinée Jeanne Picquigny). En 1987, plutôt que de rejoindre l'entreprise de maçonnerie familiale, il part à Lyon pour étudier à l'École Émile-Cohl. Il y rencontre François Roca en 1990 avec lequel il se lie d'amitié. Depuis 1996, ils co-réalisent de nombreux albums illustrés pour enfants, qui séduisent autant le public que la critique (prix Sorcière 1997, prix Goncourt jeunesse en 1996 et 2001, prix Baobab 2001, prix Chrétien de Troyes en 2003, etc).
+En 1989, avec des amis des Beaux-Arts, il prend contact avec Nino Ferrer à travers un échange de lettres. Invité par le chanteur, il se rend à sa propriété de la Taillade.Les deux hommes, que 35 ans séparent, se lient d'amitié et Fred Bernard demeure régulièrement à La Taillade. Il illustre la première intégrale posthume de l'artiste, publiée en 2004,  par une bande-dessinée en noir et blanc de 50 pages qui résume la vie de cet artiste utopiste.
+En 2003, il publie sa première bande dessinée, La Tendresse des crocodiles, qu'il a réalisée seul. Il s'affirme comme un auteur singulier dans le paysage de la bande dessinée contemporaine. Son œuvre s'ancre dans la tradition du récit de voyage ou d'aventure, un genre littéraire qu'il a découvert à l'adolescence par ses lectures de Jack London, Herman Melville, Ernest Hemingway, Jules Verne ou Hugo Pratt.
+En 2009 paraît Himalaya Vaudou, chez Drugstore, avec Jean-Marc Rochette.
+En 2018 sont publiées deux bandes dessinées sur des dessins de Benjamin Flao : Essence et Le Secret de Zara.
 </t>
         </is>
       </c>
@@ -548,38 +562,77 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Essai
-Carnet d’un voyageur immobile dans un petit jardin, Albin Michel, 2020.
-Carnet d'un jardinier amoureux du vivant, Albin Michel, 2023
-Livres jeunesse
-Texte de Fred Bernard, illustrations de François Roca
+          <t>Essai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Carnet d’un voyageur immobile dans un petit jardin, Albin Michel, 2020.
+Carnet d'un jardinier amoureux du vivant, Albin Michel, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Livres jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Texte de Fred Bernard, illustrations de François Roca
 La Reine des fourmis a disparu, Albin Michel, 1996.
 Le Secret des nuages, Albin Michel, 1997.
 Le Jardin de Max et Gardenia, Albin Michel, 1998.
-Le Train Jaune[16], Seuil, 1998.
+Le Train Jaune, Seuil, 1998.
 Monsieur Cloud nuagiste, Le Seuil, 1999.
 Cosmos, Albin Michel, 1999.
 Ushi, Albin Michel, 2000.
-Jeanne et le Mokélé[2], Albin Michel, 2001.
-Jésus Betz[17], Seuil, 2001.
+Jeanne et le Mokélé, Albin Michel, 2001.
+Jésus Betz, Seuil, 2001.
 La Comédie des Ogres, Albin Michel,2003.
-L'Homme-Bonsaï[2], Albin Michel, 2003.
-L'Indien de la tour Eiffel[18], Seuil, 2004.
+L'Homme-Bonsaï, Albin Michel, 2003.
+L'Indien de la tour Eiffel, Seuil, 2004.
 Cheval Vêtu, Albin Michel, 2005.
-Uma, la petite déesse[19],[20], Albin Michel, 2006.
+Uma, la petite déesse Albin Michel, 2006.
 Rex et moi, Albin Michel, 2007.
-Soleil noir[21],[22], Albin Michel, 2008.
-Le Pompier de Lilliputia[23], Albin Michel, 2009.
+Soleil noir Albin Michel, 2008.
+Le Pompier de Lilliputia, Albin Michel, 2009.
 Anouketh, Albin Michel, 2011.
 La Fille du Samouraï, Albin Michel, 2012.
 Rose et l'automate de l'opéra, Albin Michel, 2013
 Anya et Tigre blanc, Albin Michel Jeunesse, 2015
  Le fantôme du Cirque d'hiver : raconté par Spirit &amp; Dino, Albin Michel jeunesse, 2016
-La malédiction de l'anneau d'or[24],[25],[26], Albin Michel jeunesse, 2017
-King Kong[27], Albin Michel Jeunesse, 2020  (ISBN 9782226451538)
-Solveig : une Viking chez les Iroquois[28], Albin Michel Jeunesse, 2022  (ISBN 9782226474216)
+La malédiction de l'anneau d'or Albin Michel jeunesse, 2017
+King Kong, Albin Michel Jeunesse, 2020  (ISBN 9782226451538)
+Solveig : une Viking chez les Iroquois, Albin Michel Jeunesse, 2022  (ISBN 9782226474216)
 Autres
-Mon ami crocodile[2],[6] (texte et illustration), Albin Michel, 1996.
+Mon ami crocodile, (texte et illustration), Albin Michel, 1996.
 Wharf le pirate, La licorne vengeresse (illustration), avec Philippe-Henry Turin (texte), Seuil, 1996.
 L'Arche de Nino (illustration), avec Nino Ferrer (texte), Seuil, 2000. Livre-disque.
 Le Petit Inconnu au ballon (illustration), avec Jean-Baptiste Cabaud (texte), Éditions Le Baron Perché, 2007
@@ -590,72 +643,176 @@
 L'Histoire vraie de Pamir le cheval de Przewal Ski (texte), Julie Faulques (illustration), Nathan / Muséum d'histoire naturelle, 2014
 Monsieur Moisange (texte), Gwendal Le Bec (illustration), Albin Michel, 2015
 L'Histoire vraie de Siam l'éléphant (texte), Julie Faulques (illustration), Nathan / Muséum d'histoire naturelle, 2015
-Le Grand match (texte), Jean-François Martin (illustration), Albin Michel Jeunesse, 2015
-Livres illustrés
-Au bout, Parakou[2], (texte et dessin), Seuil, 2003. Carnet de voyage.
+Le Grand match (texte), Jean-François Martin (illustration), Albin Michel Jeunesse, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Livres illustrés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Au bout, Parakou, (texte et dessin), Seuil, 2003. Carnet de voyage.
 Les Oiseaux voyageurs : Carnet de route (illustration), avec Stéphane Durand (texte), Seuil, 2003.
 Paris couche-toi là !, texte de Camille Emmanuelle, Parigramme, 2014.
-Surf, (texte), avec The Minimalist Wave (illustration), préface de Kelly Slater, Albin Michel, 2023.
-Bandes dessinées
-Série « Une aventure de Jeanne Picquigny »
+Surf, (texte), avec The Minimalist Wave (illustration), préface de Kelly Slater, Albin Michel, 2023.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série « Une aventure de Jeanne Picquigny »
 Cette série de romans graphiques est le prolongement, sous une autre forme, de l'album Jeanne et le Mokélé (textes de Fred Bernard, illustrations de François Roca), publié en 2001 chez Albin Michel jeunesse.
-La Tendresse des crocodiles : Une aventure de Jeanne Picquigny[6], Seuil, 2003[29].
+La Tendresse des crocodiles : Une aventure de Jeanne Picquigny, Seuil, 2003.
 L'Ivresse du poulpe : Une aventure de Jeanne Picquigny, Le Seuil, 2004.
 Réédition en un seul volume de ces deux premiers ouvrages, Casterman, coll. « Écritures », 2012.
 Lily Love Peacok : Une aventure de Jeanne Picquigny, Casterman, coll. « Écritures », 2006.  Ce volume, dont l'héroïne est la fille d'Ernest Love Peacock et la petite-fille d'Eugene Love Peacock et Jeanne Picquigny, fait partie de la série, même si le personnage de Jeanne Picquigny est à l'arrière-plan.
 La Patience du tigre : Une aventure de Jeanne Picquigny, Casterman, coll. « Écritures », 2012.
-La Paresse du panda : Une aventure de Jeanne Picquigny[30], Casterman, janvier 2016.
+La Paresse du panda : Une aventure de Jeanne Picquigny, Casterman, janvier 2016.
 Autres œuvres
 Little Odyssée, KSTЯ, 2008.
-Himalaya Vaudou[7],[8],[9] (scénario), avec Jean-Marc Rochette (dessin), Drugstore, 2009.
+Himalaya Vaudou (scénario), avec Jean-Marc Rochette (dessin), Drugstore, 2009.
 L'Homme bonsaï, Delcourt, 2009.
-Cléo : une jeune femme prétendument ordinaire[31], Nil, 2010.
+Cléo : une jeune femme prétendument ordinaire, Nil, 2010.
 Ursula, vers l'amour et au-delà, Delcourt, 2011.
 Chroniques de la vigne, Glénat, 2013
 Safari intime, La Paperie / La Bulle - Médiathèque de Mazé, 2014
 Nungesser (scénario), avec Aseyn (dessin), Casterman, 2015
 Lady Sir - Journal d'une aventure musicale, Glénat, 2017
 Gold Star Mothers, scénario de Catherine Grive, Delcourt, 2017
-Essence[10],[11],[12], dessin de Benjamin Flao, Futuropolis, 2018
-Le Secret de Zara[13],[14],[15], dessin de Benjamin Flao, Delcourt, 2018
-Idiss[32], scénario  Richard Malka, dessin et couleurs Fred Bernard ; d'après le livre de Robert Badinter, Rue de Sèvres,  2021  (ISBN 9782810208104)</t>
+Essence dessin de Benjamin Flao, Futuropolis, 2018
+Le Secret de Zara dessin de Benjamin Flao, Delcourt, 2018
+Idiss, scénario  Richard Malka, dessin et couleurs Fred Bernard ; d'après le livre de Robert Badinter, Rue de Sèvres,  2021  (ISBN 9782810208104)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Fred_Bernard</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Fred_Bernard</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Quelques prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Sorcières 1997, catégorie Album, pour La Reine des fourmis a disparu, avec François Roca
-Prix Baobab 2001[33] pour Jésus Betz, avec François Roca.
-Prix Chrétien de Troyes 2003[34] pour La Comédie des Ogres, avec François Roca
-Prix des Incorruptibles 2011[35] pour Le pompier de Lilliputia, avec François Roca
-Prix Nénuphar de l'album jeunesse 2015[36] pour Le pompier de Lilliputia, avec François Roca
-Coup de cœur Jeune Public automne 2018 de l'Académie Charles-Cros pour La princesse qui rêvait d’être une petite fille[37].
-Décoration
-Nommé le 23 mars 2017 au grade de chevalier de l'ordre des Arts et des Lettres[38] (en même temps que François Roca)</t>
+Prix Baobab 2001 pour Jésus Betz, avec François Roca.
+Prix Chrétien de Troyes 2003 pour La Comédie des Ogres, avec François Roca
+Prix des Incorruptibles 2011 pour Le pompier de Lilliputia, avec François Roca
+Prix Nénuphar de l'album jeunesse 2015 pour Le pompier de Lilliputia, avec François Roca
+Coup de cœur Jeune Public automne 2018 de l'Académie Charles-Cros pour La princesse qui rêvait d’être une petite fille.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Bernard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Quelques prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nommé le 23 mars 2017 au grade de chevalier de l'ordre des Arts et des Lettres (en même temps que François Roca)</t>
         </is>
       </c>
     </row>
